--- a/target/classes/excel/sel_temp.xlsx
+++ b/target/classes/excel/sel_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83F093-872A-4C20-9E42-FE4F2A854FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269B291-0D66-4E9A-9E87-BBAC73A0E51A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,24 +31,24 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="1">
+    <comment ref="C3" authorId="1">
       <text>
-        <t>jx:each(lastCell='C1' items='u1_col1' var='u1_col1' direction='DOWN')</t>
+        <t>jx:each(lastCell='C3' items='u1_col1' var='u1_col1' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D3" authorId="1">
       <text>
-        <t>jx:each(lastCell='D1' items='u2_col2' var='u2_col2' direction='DOWN')</t>
+        <t>jx:each(lastCell='D3' items='u2_col2' var='u2_col2' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E3" authorId="1">
       <text>
-        <t>jx:each(lastCell='E1' items='u1_col5' var='u1_col5' direction='DOWN')</t>
+        <t>jx:each(lastCell='E3' items='u1_col5' var='u1_col5' direction='DOWN')</t>
       </text>
     </comment>
     <comment ref="A1" authorId="1">
       <text>
-        <t>jx:area(lastCell='E1)</t>
+        <t>jx:area(lastCell='E3')</t>
       </text>
     </comment>
   </commentList>
@@ -399,7 +399,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,15 +408,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -426,6 +417,15 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/sel_temp.xlsx
+++ b/target/classes/excel/sel_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269B291-0D66-4E9A-9E87-BBAC73A0E51A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB34FC-17A9-4CDA-AB9D-3FE102CA25AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,24 +31,9 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="1">
-      <text>
-        <t>jx:each(lastCell='C3' items='u1_col1' var='u1_col1' direction='DOWN')</t>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="1">
-      <text>
-        <t>jx:each(lastCell='D3' items='u2_col2' var='u2_col2' direction='DOWN')</t>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="1">
-      <text>
-        <t>jx:each(lastCell='E3' items='u1_col5' var='u1_col5' direction='DOWN')</t>
-      </text>
-    </comment>
     <comment ref="A1" authorId="1">
       <text>
-        <t>jx:area(lastCell='E3')</t>
+        <t>jx:area(lastCell='A1')</t>
       </text>
     </comment>
   </commentList>
@@ -399,7 +384,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
